--- a/Configs/Datas/WeaponData.xlsx
+++ b/Configs/Datas/WeaponData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>bulletsInClip</t>
+  </si>
+  <si>
     <t>reloadTime</t>
   </si>
   <si>
@@ -55,7 +58,13 @@
     <t>*downLimit</t>
   </si>
   <si>
-    <t>*bulletCnt</t>
+    <t>*volleyCount</t>
+  </si>
+  <si>
+    <t>*bulletsPerVolley</t>
+  </si>
+  <si>
+    <t>*timeBetweenBullets</t>
   </si>
   <si>
     <t>##type</t>
@@ -73,9 +82,15 @@
     <t>list,int</t>
   </si>
   <si>
+    <t>list,float</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
+    <t>弹夹内子弹总数</t>
+  </si>
+  <si>
     <t>换弹时间</t>
   </si>
   <si>
@@ -91,7 +106,13 @@
     <t>范围下限</t>
   </si>
   <si>
-    <t>范围内子弹数</t>
+    <t>范围内弹道数</t>
+  </si>
+  <si>
+    <t>同弹道子弹数</t>
+  </si>
+  <si>
+    <t>连发间发射间隔</t>
   </si>
   <si>
     <t>gun1</t>
@@ -713,11 +734,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1034,23 +1052,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="28.75" customWidth="1"/>
+    <col min="4" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="22.75" customWidth="1"/>
+    <col min="12" max="12" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1078,50 +1097,66 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1130,131 +1165,178 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:12">
       <c r="B5">
         <v>2001</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
         <v>0.2</v>
       </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
       <c r="F5">
+        <v>0.7</v>
+      </c>
+      <c r="G5">
         <v>3001</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="6" spans="6:9">
-      <c r="F6">
+    <row r="6" spans="7:12">
+      <c r="G6">
         <v>3002</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>15</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-15</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>2002</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
         <v>0.3</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3003</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2</v>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="6:9">
-      <c r="F8">
+    <row r="8" spans="7:12">
+      <c r="G8">
         <v>3004</v>
       </c>
-      <c r="G8">
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>-2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" customFormat="1" spans="2:9">
+    <row r="9" customFormat="1" spans="2:12">
       <c r="B9">
         <v>2003</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
         <v>0.5</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.1</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3003</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/WeaponData.xlsx
+++ b/Configs/Datas/WeaponData.xlsx
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Configs/Datas/WeaponData.xlsx
+++ b/Configs/Datas/WeaponData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21210" windowHeight="11925"/>
+    <workbookView windowWidth="24045" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>radis</t>
   </si>
   <si>
     <t>bulletsInClip</t>
@@ -1052,24 +1055,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="22.75" customWidth="1"/>
-    <col min="12" max="12" width="21.125" customWidth="1"/>
+    <col min="4" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="10" width="10.625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
+    <col min="13" max="13" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1106,57 +1109,63 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
       <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
       <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1164,9 +1173,6 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
@@ -1191,151 +1197,163 @@
       <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
       <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5">
         <v>2001</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>30</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.7</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3001</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="7:12">
-      <c r="G6">
+    <row r="6" spans="8:13">
+      <c r="H6">
         <v>3002</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>15</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-15</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:13">
       <c r="B7">
         <v>2002</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>50</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.1</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3003</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-5</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="7:12">
-      <c r="G8">
+    <row r="8" spans="8:13">
+      <c r="H8">
         <v>3004</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-2</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="2:12">
+    <row r="9" customFormat="1" spans="2:13">
       <c r="B9">
         <v>2003</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.1</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3003</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>0</v>
       </c>
     </row>

--- a/Configs/Datas/WeaponData.xlsx
+++ b/Configs/Datas/WeaponData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -40,21 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>radis</t>
-  </si>
-  <si>
-    <t>bulletsInClip</t>
-  </si>
-  <si>
-    <t>reloadTime</t>
-  </si>
-  <si>
-    <t>fireRate</t>
-  </si>
-  <si>
-    <t>*bulletId</t>
-  </si>
-  <si>
     <t>*upLimit</t>
   </si>
   <si>
@@ -79,9 +64,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>list,int</t>
   </si>
   <si>
@@ -91,18 +73,6 @@
     <t>##</t>
   </si>
   <si>
-    <t>弹夹内子弹总数</t>
-  </si>
-  <si>
-    <t>换弹时间</t>
-  </si>
-  <si>
-    <t>发射间隔</t>
-  </si>
-  <si>
-    <t>子弹id</t>
-  </si>
-  <si>
     <t>范围上限</t>
   </si>
   <si>
@@ -119,9 +89,6 @@
   </si>
   <si>
     <t>gun1</t>
-  </si>
-  <si>
-    <t>gun2</t>
   </si>
 </sst>
 </file>
@@ -1055,24 +1022,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="10" width="10.625" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="22.75" customWidth="1"/>
-    <col min="13" max="13" width="21.125" customWidth="1"/>
+    <col min="4" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1097,75 +1062,41 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1173,187 +1104,65 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:8">
       <c r="B5">
-        <v>2001</v>
+        <v>20011</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>0.2</v>
-      </c>
       <c r="G5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>3001</v>
-      </c>
-      <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6">
+        <v>20013</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="8:13">
+      <c r="G6">
+        <v>1</v>
+      </c>
       <c r="H6">
-        <v>3002</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <v>-15</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7">
-        <v>2002</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>0.3</v>
-      </c>
-      <c r="G7">
-        <v>0.1</v>
-      </c>
-      <c r="H7">
-        <v>3003</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>-5</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="8:13">
-      <c r="H8">
-        <v>3004</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>-2</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="2:13">
-      <c r="B9">
-        <v>2003</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
-      <c r="H9">
-        <v>3003</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
         <v>0</v>
       </c>
     </row>

--- a/Configs/Datas/WeaponData.xlsx
+++ b/Configs/Datas/WeaponData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>gun1</t>
+  </si>
+  <si>
+    <t>aoeBase</t>
   </si>
 </sst>
 </file>
@@ -1022,19 +1025,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1163,6 +1167,29 @@
         <v>1</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>20012</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>

--- a/Configs/Datas/WeaponData.xlsx
+++ b/Configs/Datas/WeaponData.xlsx
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/Configs/Datas/WeaponData.xlsx
+++ b/Configs/Datas/WeaponData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12525"/>
+    <workbookView windowWidth="18915" windowHeight="11115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -88,10 +88,13 @@
     <t>连发间发射间隔</t>
   </si>
   <si>
-    <t>gun1</t>
-  </si>
-  <si>
-    <t>aoeBase</t>
+    <t>主角左键</t>
+  </si>
+  <si>
+    <t>追踪爆裂弹</t>
+  </si>
+  <si>
+    <t>喷射击退</t>
   </si>
 </sst>
 </file>
@@ -707,11 +710,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,17 +1028,17 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:I$1048576"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="5" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
+    <col min="4" max="5" width="10.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="21.125" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="22.775" customWidth="1"/>
+    <col min="8" max="8" width="21.1083333333333" customWidth="1"/>
+    <col min="9" max="9" width="17.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1077,13 +1077,13 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
@@ -1149,10 +1149,10 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6">
-        <v>20013</v>
+        <v>20012</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7">
-        <v>20012</v>
+        <v>20013</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>0</v>

--- a/Configs/Datas/WeaponData.xlsx
+++ b/Configs/Datas/WeaponData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18915" windowHeight="11115"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -55,6 +55,9 @@
     <t>*timeBetweenBullets</t>
   </si>
   <si>
+    <t>*specialSkill</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>连发间发射间隔</t>
   </si>
   <si>
+    <t>特殊能力</t>
+  </si>
+  <si>
     <t>主角左键</t>
   </si>
   <si>
@@ -95,6 +101,21 @@
   </si>
   <si>
     <t>喷射击退</t>
+  </si>
+  <si>
+    <t>理智之花多弹道</t>
+  </si>
+  <si>
+    <t>理智之花弹反</t>
+  </si>
+  <si>
+    <t>理智之花冲刺</t>
+  </si>
+  <si>
+    <t>蓄力水炮</t>
+  </si>
+  <si>
+    <t>召唤</t>
   </si>
 </sst>
 </file>
@@ -1025,13 +1046,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
     <col min="4" max="5" width="10.6666666666667" customWidth="1"/>
@@ -1041,7 +1062,7 @@
     <col min="9" max="9" width="17.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,30 +1087,36 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1098,9 +1125,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1109,27 +1136,30 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:9">
       <c r="B5">
         <v>20011</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1146,13 +1176,16 @@
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:9">
       <c r="B6">
         <v>20012</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1169,13 +1202,16 @@
       <c r="H6">
         <v>0</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:9">
       <c r="B7">
         <v>20013</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1191,6 +1227,139 @@
       </c>
       <c r="H7">
         <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8">
+        <v>20014</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>-30</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9">
+        <v>20015</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>-30</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10">
+        <v>20016</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11">
+        <v>20017</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12">
+        <v>20018</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/WeaponData.xlsx
+++ b/Configs/Datas/WeaponData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18915" windowHeight="11115"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -55,6 +55,9 @@
     <t>*timeBetweenBullets</t>
   </si>
   <si>
+    <t>*specialSkill</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>连发间发射间隔</t>
   </si>
   <si>
+    <t>特殊能力</t>
+  </si>
+  <si>
     <t>主角左键</t>
   </si>
   <si>
@@ -95,6 +101,21 @@
   </si>
   <si>
     <t>喷射击退</t>
+  </si>
+  <si>
+    <t>理智之花多弹道</t>
+  </si>
+  <si>
+    <t>理智之花弹反</t>
+  </si>
+  <si>
+    <t>理智之花冲刺</t>
+  </si>
+  <si>
+    <t>蓄力水炮</t>
+  </si>
+  <si>
+    <t>召唤</t>
   </si>
 </sst>
 </file>
@@ -1025,13 +1046,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
     <col min="4" max="5" width="10.6666666666667" customWidth="1"/>
@@ -1041,7 +1062,7 @@
     <col min="9" max="9" width="17.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,30 +1087,36 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1098,9 +1125,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1109,27 +1136,30 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:9">
       <c r="B5">
         <v>20011</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1141,18 +1171,21 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:9">
       <c r="B6">
         <v>20012</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1169,13 +1202,16 @@
       <c r="H6">
         <v>0</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:9">
       <c r="B7">
         <v>20013</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1191,6 +1227,139 @@
       </c>
       <c r="H7">
         <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8">
+        <v>20014</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>-30</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9">
+        <v>20015</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>-30</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10">
+        <v>20016</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11">
+        <v>20017</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12">
+        <v>20018</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/WeaponData.xlsx
+++ b/Configs/Datas/WeaponData.xlsx
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
